--- a/1_semester/Moduls/Приложение/Order.xlsx
+++ b/1_semester/Moduls/Приложение/Order.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Moduls\Приложение\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD14617-E0FB-45E0-A45A-266D6021548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2145" windowWidth="15645" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="2145" windowWidth="15645" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -66,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -385,17 +379,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1970980B-6964-4E6C-9606-DAE078F4F238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
@@ -403,7 +397,7 @@
     <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="63">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -429,7 +423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -455,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -481,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -507,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>

--- a/1_semester/Moduls/Приложение/Order.xlsx
+++ b/1_semester/Moduls/Приложение/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Moduls\Приложение\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD14617-E0FB-45E0-A45A-266D6021548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D138084-DE8E-4D1E-AB82-2FDA94D861C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2145" windowWidth="15645" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10965" yWindow="1710" windowWidth="7320" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="2" r:id="rId1"/>
@@ -28,16 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>А112Т4</t>
-  </si>
-  <si>
-    <t>G783F5</t>
-  </si>
-  <si>
-    <t>F635R4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -57,10 +48,10 @@
     <t>AmountOfRent</t>
   </si>
   <si>
-    <t>ArticleEquipment</t>
-  </si>
-  <si>
     <t>DateRent</t>
+  </si>
+  <si>
+    <t>FK_Equipment</t>
   </si>
 </sst>
 </file>
@@ -389,7 +380,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -405,36 +396,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -459,8 +450,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+      <c r="B3" s="3">
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>7</v>
@@ -485,7 +476,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="2">
@@ -511,8 +502,8 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
+      <c r="B5" s="6">
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>11</v>

--- a/1_semester/Moduls/Приложение/Order.xlsx
+++ b/1_semester/Moduls/Приложение/Order.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Moduls\Приложение\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D138084-DE8E-4D1E-AB82-2FDA94D861C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="1710" windowWidth="7320" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10968" yWindow="1716" windowWidth="7320" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Order" sheetId="2" r:id="rId1"/>
+    <sheet name="Order" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -49,16 +43,13 @@
   </si>
   <si>
     <t>DateRent</t>
-  </si>
-  <si>
-    <t>FK_Equipment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -376,151 +367,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1970980B-6964-4E6C-9606-DAE078F4F238}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="46.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="D1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
+        <v>45767</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
-        <v>45767</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="5">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>901</v>
       </c>
-      <c r="H2" s="3">
+      <c r="G2" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C3" s="4">
         <v>45768</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="3">
         <v>11</v>
       </c>
-      <c r="F3" s="5">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
+      <c r="F3" s="3">
+        <v>902</v>
+      </c>
       <c r="G3" s="3">
-        <v>902</v>
-      </c>
-      <c r="H3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
+        <v>45769</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
-        <v>45769</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>903</v>
       </c>
-      <c r="H4" s="3">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
+      <c r="C5" s="7">
         <v>45770</v>
       </c>
-      <c r="E5" s="6">
+      <c r="D5" s="6">
         <v>11</v>
       </c>
-      <c r="F5" s="8">
-        <v>3</v>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>904</v>
       </c>
       <c r="G5" s="6">
-        <v>904</v>
-      </c>
-      <c r="H5" s="6">
         <v>3</v>
       </c>
     </row>
